--- a/documents/整体协议.xlsx
+++ b/documents/整体协议.xlsx
@@ -1,236 +1,190 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63526E6D-448E-4709-9909-6257B77324A0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="14400" windowHeight="12870"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="51">
   <si>
     <t>协议头</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>分割符</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备类型</t>
   </si>
   <si>
     <t>协议类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>协议数据</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>总长度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>结束符</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>#SMARTEMAL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>，</t>
   </si>
   <si>
     <t>*HH</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>，</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>注释：协议头与结束符都是不变的字符。分割符为英文字符的逗号“,”。设备类型是分为三个设备详细对应请看下表。协议类型分为九种，九种类型的协议数据详细对应下表。总长度是包含协议头及结束符在内的所有字符(不包括总长度自身的字符)。</t>
+  </si>
+  <si>
+    <t>例：#SMARTEMAL,1,1,1D1H1M1S,28,*HH</t>
   </si>
   <si>
     <t>设备名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>代表字符</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>净水器智能屏</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>空气净化器智能屏</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>杀菌加湿器智能屏</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>协议</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>协议名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>协议内容</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>解释</t>
+  </si>
+  <si>
+    <t>状态</t>
+  </si>
+  <si>
+    <t>控制</t>
   </si>
   <si>
     <t>状态时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1D1H1M</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>解释</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>D代表天H代表小时M代表分钟</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1D1H1M1S</t>
+  </si>
+  <si>
+    <t>D代表天H代表小时M代表分钟S代表秒</t>
+  </si>
+  <si>
+    <t>√</t>
+  </si>
+  <si>
+    <t>×</t>
   </si>
   <si>
     <t>开关机</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1/0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1代表开机，0代表关机</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>停水</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1代表开始，0代表停止</t>
   </si>
   <si>
     <t>制水</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>加热</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>保温</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>风量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1---10</t>
+  </si>
+  <si>
+    <t>共有十个等级风量1到10</t>
   </si>
   <si>
     <t>风向</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1--2</t>
+  </si>
+  <si>
+    <t>1代表固定风向，2代表左右风向</t>
   </si>
   <si>
     <t>温度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>传输温度值</t>
   </si>
   <si>
     <t>故障</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1代表有故障，0代表无故障</t>
   </si>
   <si>
     <t>滤芯</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>维护</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>传输温度值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1代表开始，0代表停止</t>
-  </si>
-  <si>
-    <t>1代表开始，0代表停止</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1代表有故障，0代表无故障</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1---10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>共有十个等级风量1到10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1代表固定风向，2代表左右风向</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1--2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>控制</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>√</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>×</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝牙</t>
+  </si>
+  <si>
+    <t>1代表关闭蓝牙</t>
   </si>
   <si>
     <t>注释：状态代表可以设备上发的状态，控制代表APP可以控制的类型，设备对应的功能请参照需求文档。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>注释：协议头与结束符都是不变的字符。分割符为英文字符的逗号“,”。设备类型是分为三个设备详细对应请看下表。协议类型分为九种，九种类型的协议数据详细对应下表。总长度是包含协议头及结束符在内的所有字符。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>例：#SMARTEMAL,1,1,1D1H1M,26,*HH</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -238,19 +192,147 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -260,10 +342,191 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -286,14 +549,238 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -302,42 +789,82 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="26" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="26" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="26" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="1" fillId="2" borderId="1" xfId="26" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="58" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="26" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="检查单元格" xfId="1" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -386,7 +913,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -421,7 +948,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -595,24 +1122,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:K8"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="29.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1" customWidth="1"/>
@@ -627,7 +1149,7 @@
     <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -635,36 +1157,36 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
@@ -682,12 +1204,12 @@
         <v>8</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:11">
       <c r="A3" s="2" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -700,7 +1222,7 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -713,7 +1235,7 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -726,7 +1248,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -739,7 +1261,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -752,360 +1274,360 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-    </row>
-    <row r="9" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
+    <row r="8" ht="15" spans="1:11">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" ht="15.75" spans="1:14">
+      <c r="A9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
       <c r="M9" s="5" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="N9" s="5"/>
     </row>
-    <row r="10" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
+    <row r="10" ht="15.75" spans="1:14">
+      <c r="A10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
       <c r="M10" s="6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" ht="15.75" spans="1:14">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
       <c r="M11" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N11" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
+    <row r="12" ht="15.75" spans="1:14">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
       <c r="M12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N12" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
+    <row r="13" ht="15.75" spans="1:14">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
       <c r="M13" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N13" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="M15" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-    </row>
-    <row r="16" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
+    <row r="14" ht="15.75" spans="1:11">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+    </row>
+    <row r="15" ht="15.75" spans="1:18">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="M15" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+    </row>
+    <row r="16" ht="15.75" spans="1:18">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
       <c r="M16" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="R16" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" ht="15.75" spans="1:18">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
       <c r="M17" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="N17" s="7">
         <v>1</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="R17" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" ht="15.75" spans="1:18">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
       <c r="M18" s="7" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="N18" s="7">
         <v>2</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="R18" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" ht="15.75" spans="13:18">
       <c r="M19" s="7" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N19" s="7">
         <v>3</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="R19" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" ht="15.75" spans="13:18">
       <c r="M20" s="7" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="N20" s="7">
         <v>4</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="R20" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75" spans="13:18">
       <c r="M21" s="7" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="N21" s="7">
         <v>5</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="R21" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" ht="15.75" spans="13:18">
       <c r="M22" s="7" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="N22" s="7">
         <v>6</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="R22" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" ht="15.75" spans="13:18">
       <c r="M23" s="7" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="N23" s="7">
         <v>7</v>
       </c>
-      <c r="O23" s="9" t="s">
+      <c r="O23" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="R23" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" ht="15.75" spans="13:18">
+      <c r="M24" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="R23" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="M24" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="N24" s="7">
         <v>8</v>
       </c>
-      <c r="O24" s="9" t="s">
-        <v>42</v>
+      <c r="O24" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>41</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="R24" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" ht="15.75" spans="13:18">
       <c r="M25" s="7" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="N25" s="7">
         <v>9</v>
@@ -1114,104 +1636,124 @@
         <v>50</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="R25" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" ht="15.75" spans="13:18">
       <c r="M26" s="7" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="N26" s="7">
         <v>10</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="R26" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" ht="15.75" spans="13:18">
+      <c r="M27" s="7" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="M27" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="N27" s="7">
         <v>11</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="R27" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" ht="15.75" spans="13:18">
       <c r="M28" s="7" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="N28" s="7">
         <v>12</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="R28" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="M29" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="N29" s="10"/>
-      <c r="O29" s="10"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="10"/>
-      <c r="R29" s="10"/>
-    </row>
-    <row r="30" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="10"/>
-      <c r="P30" s="10"/>
-      <c r="Q30" s="10"/>
-      <c r="R30" s="10"/>
-    </row>
-    <row r="31" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" ht="15.75" spans="13:18">
+      <c r="M29" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="N29" s="7">
+        <v>13</v>
+      </c>
+      <c r="O29" s="7">
+        <v>1</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="R29" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" ht="15.75" spans="13:18">
+      <c r="M30" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="9"/>
+    </row>
+    <row r="31" ht="15.75" spans="13:18">
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="9"/>
+    </row>
+    <row r="32" ht="15"/>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="M29:R30"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="M9:N9"/>
     <mergeCell ref="M15:R15"/>
-    <mergeCell ref="A8:K8"/>
     <mergeCell ref="A3:K7"/>
-    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M30:R31"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>